--- a/data/trans_bre/P1414-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1414-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.9530497663008276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.148724876370986</v>
+        <v>2.148724876370985</v>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
@@ -640,16 +640,18 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9885207961931473</v>
+        <v>0.9854345525034532</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3645281912964907</v>
+        <v>-0.4836258213292537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.056345781237964</v>
+        <v>1.106111891330805</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
-      <c r="G5" s="6" t="inlineStr"/>
+      <c r="G5" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -660,13 +662,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.311418252105801</v>
+        <v>5.202069006689372</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.632533545067914</v>
+        <v>2.80282953822468</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.755096853361913</v>
+        <v>3.854570319066601</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -690,7 +692,7 @@
         <v>0.9791630995826348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.151912353544866</v>
+        <v>3.151912353544867</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>3.663972054211662</v>
@@ -699,7 +701,7 @@
         <v>1.669330761658251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13.72993709353603</v>
+        <v>13.72993709353604</v>
       </c>
     </row>
     <row r="8">
@@ -710,18 +712,18 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.005865925728563134</v>
+        <v>0.03392419761465857</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.3938338896662099</v>
+        <v>-0.3906906891000609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.889228097499533</v>
+        <v>1.8937465582407</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>2.424410374927471</v>
+        <v>2.69845485458557</v>
       </c>
     </row>
     <row r="9">
@@ -732,13 +734,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.626806244021815</v>
+        <v>2.625503955575692</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.893836016721861</v>
+        <v>2.806418487569947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.94425754461606</v>
+        <v>4.718915220610365</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
@@ -762,7 +764,7 @@
         <v>3.227208697308702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.753307327937331</v>
+        <v>4.753307327937332</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>25.13643245821687</v>
@@ -771,7 +773,7 @@
         <v>5.798999458965603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3.180722315201219</v>
+        <v>3.18072231520122</v>
       </c>
     </row>
     <row r="11">
@@ -782,20 +784,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.067607661991958</v>
+        <v>2.091666028953512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.693981771426833</v>
+        <v>0.6982070079000411</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.869509531589169</v>
+        <v>2.17983193264687</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
-      <c r="G11" s="6" t="n">
-        <v>-0.1019029679173755</v>
-      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>0.6007408516868803</v>
+        <v>0.5011145029339876</v>
       </c>
     </row>
     <row r="12">
@@ -806,20 +806,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.352341172891847</v>
+        <v>7.46019339745531</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.605092826686769</v>
+        <v>7.274588563515409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.697741605719356</v>
+        <v>8.066810731659448</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="n">
-        <v>36.82936881190896</v>
-      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>11.42470843411568</v>
+        <v>11.5142316008748</v>
       </c>
     </row>
     <row r="13">
@@ -860,22 +858,20 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3702769866862453</v>
+        <v>0.394508794122319</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.809780096939929</v>
+        <v>1.767286500705534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.33132119310826</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>0.08451335856992939</v>
-      </c>
+        <v>2.306739702419648</v>
+      </c>
+      <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>2.071651762457938</v>
+        <v>1.915228948812562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4.346830062602777</v>
+        <v>3.39858222270831</v>
       </c>
     </row>
     <row r="15">
@@ -886,20 +882,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.328377822594823</v>
+        <v>2.253186046002952</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.409019325176968</v>
+        <v>4.58211465963444</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.196542561909115</v>
+        <v>4.397620081186004</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>21.05204223541577</v>
+        <v>22.35953847606752</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45.04326007954322</v>
+        <v>48.46404902759249</v>
       </c>
     </row>
     <row r="16">
@@ -929,7 +925,7 @@
         <v>36.75038326156226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>19.0673460813698</v>
+        <v>19.06734608136979</v>
       </c>
     </row>
     <row r="17">
@@ -940,20 +936,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.941206220795746</v>
+        <v>1.953388321956932</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.710441752231734</v>
+        <v>4.705039507299166</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.029337654435973</v>
+        <v>4.075625586409057</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.197775822474138</v>
+        <v>1.25745478494449</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>2.981090205457287</v>
+        <v>3.135286160248205</v>
       </c>
     </row>
     <row r="18">
@@ -964,16 +960,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.128068573330868</v>
+        <v>5.103967850412851</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.627666722762651</v>
+        <v>8.5778178010637</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.616183479247245</v>
+        <v>6.775991983779964</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24.07907190457439</v>
+        <v>22.28101992996748</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -996,7 +992,7 @@
         <v>2.797280297607772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4.058587162188413</v>
+        <v>4.058587162188412</v>
       </c>
       <c r="F19" s="6" t="inlineStr">
         <is>
@@ -1009,7 +1005,7 @@
         </is>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8.769900391601219</v>
+        <v>8.769900391601217</v>
       </c>
     </row>
     <row r="20">
@@ -1020,13 +1016,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.656155211932865</v>
+        <v>1.659070111433456</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.850329713903092</v>
+        <v>1.903565804358385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.365455179340572</v>
+        <v>2.358738267882048</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1040,13 +1036,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.548553956040585</v>
+        <v>3.552256940198617</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.934063487053906</v>
+        <v>3.911011444996185</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.268603608535142</v>
+        <v>5.321296991690546</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1070,7 +1066,7 @@
         <v>3.126492634162319</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.748734198633194</v>
+        <v>3.748734198633193</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>10.98618535857684</v>
@@ -1079,7 +1075,7 @@
         <v>7.535290625842598</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8.722605797634724</v>
+        <v>8.722605797634722</v>
       </c>
     </row>
     <row r="23">
@@ -1090,22 +1086,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.83422166512145</v>
+        <v>1.878936694611881</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.471466781800697</v>
+        <v>2.519924435345209</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.23378892435335</v>
+        <v>3.203250012016798</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4.967005359338527</v>
+        <v>4.635939733192023</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4.025626942047793</v>
+        <v>3.843324665641039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>4.578983653350163</v>
+        <v>4.806575309477011</v>
       </c>
     </row>
     <row r="24">
@@ -1116,22 +1112,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.007423998449946</v>
+        <v>2.970628942855374</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.804966079267053</v>
+        <v>3.859841112152509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.374864765479543</v>
+        <v>4.362110414641767</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>29.27082765351676</v>
+        <v>28.75702484239618</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>15.84182335588778</v>
+        <v>15.0218179497047</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>15.37369088975277</v>
+        <v>16.02737795730352</v>
       </c>
     </row>
     <row r="25">
